--- a/AdditionalData_Final/FamousAthletes.xlsx
+++ b/AdditionalData_Final/FamousAthletes.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="78">
   <si>
     <t>AID</t>
   </si>
@@ -138,13 +138,133 @@
   </si>
   <si>
     <t>Phelps</t>
+  </si>
+  <si>
+    <t>William Bruce</t>
+  </si>
+  <si>
+    <t>Jenner</t>
+  </si>
+  <si>
+    <t>Lochte</t>
+  </si>
+  <si>
+    <t>Ryan</t>
+  </si>
+  <si>
+    <t>Jingjing</t>
+  </si>
+  <si>
+    <t>Guo</t>
+  </si>
+  <si>
+    <t>Scherbo</t>
+  </si>
+  <si>
+    <t>Vitaly</t>
+  </si>
+  <si>
+    <t>Osburn</t>
+  </si>
+  <si>
+    <t>Carl Townsend</t>
+  </si>
+  <si>
+    <t>Biondi</t>
+  </si>
+  <si>
+    <t>Matthew</t>
+  </si>
+  <si>
+    <t>Astakhova</t>
+  </si>
+  <si>
+    <t>Polina</t>
+  </si>
+  <si>
+    <t>Ono</t>
+  </si>
+  <si>
+    <t>Takashi</t>
+  </si>
+  <si>
+    <t>Elisabeta</t>
+  </si>
+  <si>
+    <t>Lipa</t>
+  </si>
+  <si>
+    <t>Gary Jr.</t>
+  </si>
+  <si>
+    <t>Hall</t>
+  </si>
+  <si>
+    <t>Keleti</t>
+  </si>
+  <si>
+    <t>Agnes</t>
+  </si>
+  <si>
+    <t>Vezzali</t>
+  </si>
+  <si>
+    <t>Valentina</t>
+  </si>
+  <si>
+    <t>Daley </t>
+  </si>
+  <si>
+    <t>Thompson</t>
+  </si>
+  <si>
+    <t>Mangiarotti</t>
+  </si>
+  <si>
+    <t>Edoardo</t>
+  </si>
+  <si>
+    <t>Coughlin</t>
+  </si>
+  <si>
+    <t>Natalie</t>
+  </si>
+  <si>
+    <t>Torres</t>
+  </si>
+  <si>
+    <t>Dara</t>
+  </si>
+  <si>
+    <t>Louganis</t>
+  </si>
+  <si>
+    <t>Gregory</t>
+  </si>
+  <si>
+    <t>Caslavska</t>
+  </si>
+  <si>
+    <t>Vera</t>
+  </si>
+  <si>
+    <t>Ewry</t>
+  </si>
+  <si>
+    <t>Ray</t>
+  </si>
+  <si>
+    <t>Bolt</t>
+  </si>
+  <si>
+    <t>Ussain</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -153,10 +273,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FF222222"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -179,9 +321,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -496,232 +649,478 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="11.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>4402</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
+      <c r="A2" s="1">
+        <v>8613</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>19112</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>6</v>
+      <c r="A3" s="1">
+        <v>11364</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>20173</v>
+      <c r="A4" s="1">
+        <v>6921</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
+        <v>42</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>8783</v>
+      <c r="A5" s="1">
+        <v>16889</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
+        <v>45</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>12231</v>
+      <c r="A6" s="1">
+        <v>14245</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" t="s">
-        <v>11</v>
+        <v>47</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>21473</v>
+      <c r="A7" s="1">
+        <v>1657</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" t="s">
-        <v>14</v>
+        <v>49</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>16363</v>
+      <c r="A8" s="1">
+        <v>705</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9">
+      <c r="A9" s="1">
         <v>13571</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10">
+      <c r="A10" s="1">
+        <v>14179</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>11262</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>7095</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>9261</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>20108</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>3426</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>19069</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>11924</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>12231</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>3567</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>19321</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>18254</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>11481</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>2851</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>13922</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>5193</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>1896</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>4402</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>19112</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>20173</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>8783</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>12231</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>21473</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>16363</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>13571</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
         <v>9105</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B35" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C35" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
         <v>18254</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B36" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C36" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>3426</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
         <v>18042</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B37" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C37" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
         <v>8893</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B38" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C38" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
         <v>10718</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B39" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C39" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
         <v>14323</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B40" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C40" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>13922</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
         <v>11034</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B41" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C41" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
         <v>14961</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B42" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C42" s="4" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>13922</v>
-      </c>
-      <c r="B20" t="s">
-        <v>33</v>
-      </c>
-      <c r="C20" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>
